--- a/biology/Botanique/Achille_Duchêne/Achille_Duchêne.xlsx
+++ b/biology/Botanique/Achille_Duchêne/Achille_Duchêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achille_Duch%C3%AAne</t>
+          <t>Achille_Duchêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achille Duchêne est un paysagiste français né à Paris 17e le 1er novembre 1866[1] et mort  à Paris 16e le 12 novembre 1947[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achille Duchêne est un paysagiste français né à Paris 17e le 1er novembre 1866 et mort  à Paris 16e le 12 novembre 1947.
 Fils du jardiniste Henri Duchêne (1841-1902), Achille Duchêne fut le paysagiste attitré de la haute société à la fin du XIXe siècle et à la Belle Époque. Il dessina plus de 6 000 jardins.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achille_Duch%C3%AAne</t>
+          <t>Achille_Duchêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille Duchêne apprend de son père, avec qui il collabore très tôt, la science du tracé et de la perspective ainsi que des subtils nivellements de terrain. Admirateur d'André Le Nôtre, il ressuscite le jardin à la française et en diffuse le modèle dans le monde entier, jusqu'en Californie. Il supervise notamment la réalisation du jardin d'eau de Blenheim Palace (Angleterre) pour le duc de Marlborough.
 Surnommé le « prince des jardins » par Ernest de Ganay, qui le fait travailler au château de Courances, il livre avec les parterres du château de Voisins à Saint-Hilarion, pour le comte Edmond de Fels, la réalisation considérée comme son chef-d'œuvre où « le paysage sert de toile de fond, comme un décor de théâtre ».
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achille_Duch%C3%AAne</t>
+          <t>Achille_Duchêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parcs de châteaux
-Château d'Abondant (Eure-et-Loir), pour Franklin Singer (?) vers 1902 ;
+          <t>Parcs de châteaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Château d'Abondant (Eure-et-Loir), pour Franklin Singer (?) vers 1902 ;
 Château d'Avrilly (Allier) ;
 Château de Breteuil (Yvelines) (avec son père Henri Duchêne) ;
 Château de Bouges (Indre), pour Henri Dufour, avec son père Henri Duchêne (1897-1909) ;
@@ -559,7 +578,7 @@
 Château de Champs-sur-Marne, pour le comte Louis Cahen d'Anvers (fin du XIXe siècle) ;
 Château de Cornusse (Cher) pour Henri Martin-Zédé ;
 Château de Courances, pour la marquise Jean de Ganay ;
-Nouveau Château de Dangu (Eure), pour le duc Pozzo di Borgo, 1899[3] ;
+Nouveau Château de Dangu (Eure), pour le duc Pozzo di Borgo, 1899 ;
 Château d'Eijsden (près de Maastricht, Pays-Bas), pour le comte Marcel de Liedekerke de Pailhe, vers 1900 ;
 Château de La Jumellière (Maine-et-Loire) : 52 hectares, pour le comte de Maillé, avec son père Henri Duchêne ;
 Château de La Lorie ( Maine-et-Loire)(Touraine), pour le comte de Saint-Genys ;
@@ -579,9 +598,43 @@
 Château de Joyeux (Ain) pour Georges et Fernande Meillet-Montessuy ;
 Château de Suisnes (Seine-et-Marne), (avec son père Henri Duchêne) : parc à l'Anglaise de 17 hectares réalisé pour Jacques de Noirmont ;
 Jardin de l'hôtel Errazuriz (après 1911), actuel Musée national des Arts décoratifs, avenida del Libertador, 1902, à Buenos-Aires ;
-Parc du palais de Blenheim, lorsque sa propriétaire est Consuelo Vanderbilt.
-Autres jardins
-Jardin de l'hôtel Porgès, 18 avenue Montaigne à Paris (8e), pour Jules Porgès ;
+Parc du palais de Blenheim, lorsque sa propriétaire est Consuelo Vanderbilt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Achille_Duchêne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Achille_Duch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales réalisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres jardins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jardin de l'hôtel Porgès, 18 avenue Montaigne à Paris (8e), pour Jules Porgès ;
 Jardins Albert-Kahn, Boulogne-Billancourt (Hauts de Seine) ;
 Jardins du palais Rose de l'avenue Foch pour le comte Boniface de Castellane ;
 Jardin du cloître de l'abbaye de Royaumont (1912), pour la famille Goüin ;
@@ -593,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Achille_Duch%C3%AAne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Achille_Duchêne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Achille_Duch%C3%AAne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un square Henri-et-Achille-Duchêne se trouve dans le 14e arrondissement de Paris.
 Une plaque commémorative est apposée 10 avenue de New-York (16e arrondissement de Paris), où il vécut.
